--- a/BIOS/Xiaomi Laptops.xlsx
+++ b/BIOS/Xiaomi Laptops.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MariLuz\OneDrive - Universitat de Barcelona\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnny/Documents/Projects/EFI-Xiaomi-Notebook-air-12-5/BIOS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="8_{07D65FB2-16B3-43A7-AE44-6741861D3ADE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{AB4A598B-7B77-426A-8370-02C6A48E148E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C48C74-3FD7-3C44-A08F-F656584780E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{66BF20A8-EF26-4AB8-AB91-90254A74F0E0}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24240" windowHeight="13140" xr2:uid="{66BF20A8-EF26-4AB8-AB91-90254A74F0E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="55">
   <si>
     <t>CFG Lock</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>0x1FB</t>
+  </si>
+  <si>
+    <t>Xiaomi Pro 15.6</t>
   </si>
 </sst>
 </file>
@@ -329,7 +332,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -628,12 +631,12 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -651,7 +654,7 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>35</v>
@@ -697,7 +700,7 @@
       </c>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -715,7 +718,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -763,7 +766,7 @@
       </c>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
@@ -811,7 +814,7 @@
       </c>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>14</v>
       </c>
@@ -859,7 +862,7 @@
       </c>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>16</v>
       </c>
@@ -907,7 +910,7 @@
       </c>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
@@ -947,31 +950,63 @@
       <c r="M8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="N8" s="9"/>
+      <c r="N8" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="O8" s="9" t="s">
         <v>52</v>
       </c>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="3" t="s">
         <v>34</v>
@@ -993,7 +1028,7 @@
       <c r="O10" s="4"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
         <v>35</v>
@@ -1015,7 +1050,7 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1040,12 +1075,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1258,15 +1290,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D15588A-D818-4BD7-A867-9085129FCF28}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33E01B0B-DDB5-4FD1-B670-145D9436A264}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="4d8ad8fb-ad0c-4296-9562-7206b2ff67fe"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="c407295a-1144-40fe-9246-60463266bc69"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1291,18 +1335,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33E01B0B-DDB5-4FD1-B670-145D9436A264}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D15588A-D818-4BD7-A867-9085129FCF28}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="4d8ad8fb-ad0c-4296-9562-7206b2ff67fe"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="c407295a-1144-40fe-9246-60463266bc69"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>